--- a/manish/courseLaw/LMR/Practice1.xlsx
+++ b/manish/courseLaw/LMR/Practice1.xlsx
@@ -38,10 +38,56 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Microsoft Office User</author>
     <author>K</author>
   </authors>
   <commentList>
-    <comment ref="A221" authorId="0">
+    <comment ref="A157" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Under contract law an IMPLIED COVENANT by each party to a contract is that they will not act to prevent the other party from performing contract duties and they will take reasonable steps to assure the other party enjoys the expected benefit of the bargain. Performance of this implied covenant is an IMPLIED MATERIAL CONDITION of every contract,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Under contract law remedies are COMPENSATORY to give the non-breaching party the benefit of the bargain, the compensation that had been bargained for. If property is UNIQUE money damages are in inadequate remedy and SPECIFIC PERFORMANCE is appropriate.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A234" authorId="1">
       <text>
         <r>
           <rPr>
@@ -376,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="225">
   <si>
     <t>Tort Issues</t>
   </si>
@@ -1745,6 +1791,162 @@
   <si>
     <t xml:space="preserve">Further, under a BREACH OF IMPLIED WARRANTY theory the plaintiff must show the defendant sold goods by representing they were safe for ordinary use or knowing the buyer's specific intended use (implied warranty), the goods were unreasonably dangerous for that use, and that it was the actual and proximate cause of injury to the plaintiff. </t>
   </si>
+  <si>
+    <t xml:space="preserve">Under a NEGLIGENCE theory the defendant has a duty not to place unreasonably dangerous goods into the stream of commerce. The plaintiff must be a foreseeable plaintiff proximately caused injury by the negligent acts of the defendant. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And, under a STRICT LIABILITY theory the plaintiff must show the seller was a COMMERCIAL SUPPLIER, the product was unreasonably dangerous at the time it left the defendant's control, and the defendant is only liable for non-economic damages. </t>
+  </si>
+  <si>
+    <t>defendant sold goods with express representation that makes product unreasonably dangerous and that was actual and proximate cause of injury</t>
+  </si>
+  <si>
+    <t>defendant sold goods by representing they were safe for ordinary use or knowing buyers specific intended use, the goods were unreasonably dangerous and that was actual and proximate cause of injury.</t>
+  </si>
+  <si>
+    <t>duty not to place unreasonably dangerous goods into the stream of commerce.</t>
+  </si>
+  <si>
+    <t>only non economic damages, plaintiff has to show that seller was commercial supplier and product was unreasonably dangreous when it left the defendants control.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law the defendant is the ACTUAL CAUSE of injury if the plaintiff would not have been injured BUT FOR the acts of the defendant. </t>
+  </si>
+  <si>
+    <t>If plaintiff would have not been injured but for defendant's act, is actual cause of injury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If two or more defendants acted negligently, the plaintiff would not have been injured if neither had acted, and the plaintiff cannot reasonably prove she would not have been injured but for the acts of each alone, then each defendant is a SUBSTANTIAL FACTOR causing injury. </t>
+  </si>
+  <si>
+    <t>2 or more defendant acted negligently and if no one has acted, plaintiff would not have been injured, and plaintiff cannot reasonably tell who injured him or injured by act of which defendant, then each defendant will be a substantial factor causing injury.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law PROXIMATE CAUSE means that the injury suffered by the plaintiff was so DIRECT, NATURAL and FORESEEABLE, so close in time and place, resulting from a CHAIN OF CAUSATION begun by the defendant’s acts, unbroken by UNFORESEEABLE INTERVENING EVENTS that the law will impose liability for the result. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is unbroken by unforeseeable intervening events, chain of causation begin by defendant's act, plaintiff suffered injury, which is direct, natural and foreseebale, so close in time and place, </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generally if two or more events are actual causes of the plaintiff’s injury, the last event will be an UNFORESEEABLE INTERVENING EVENT cutting off the liability of all defendants who acted earlier. However, it is a matter of settled law that negligent acts by others are FORESEEABLE so they can never be intervening events. Acts of nature </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">[e.g. tornados] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">and criminal or intentionally tortious acts by third parties </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">[e.g. thefts, batteries] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">are presumed to be UNFORESEEABLE and will terminate defendants’ liability unless extrinsic evidence shows defendants were aware the subsequent events were likely to occur. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Under the EGG-SHELL PLAINTIFF concept, defendants are liable for all damages they actually cause plaintiffs, even if the plaintiffs , through no fault of their own, have pre-existing conditions that make them especially vulnerable to injury. The doctrine of the law is that “defendants must take plaintiffs as they find them.” </t>
+  </si>
+  <si>
+    <t>plaintiff due to pre-existing condition is vulunerable to injury, defendant is liable for all damages to plaintiff they actually cause to such plaintiff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law ASSUMPTION OF THE RISK is a complete bar to recovery for negligence if 1) plaintiffs deliberately put themselves at risk 2) with full awareness of the risks and 3) a conscious acceptance of the risks </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plaintiff is bar to recovery from negligence if 1) plaintiff deliberately </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>put themselve at risk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2) with full </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>awareness of risk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and 3) conscious </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>acceptance of risk</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law CONTRIBUTORY NEGLIGENCE completely bars plaintiffs from recovery in some States if any negligence by the plaintiffs helped cause their own injury. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This often produces harsh results and these jurisdictions may use the LAST CLEAR CHANCE DOCTRINE to allow negligent plaintiffs to recover anyway if the defendants had the last clear opportunity to avoid the accident. For the same reason these States may also use the AVOIDABLE INJURY DOCTRINE to allocate the injuries between the parties if negligence by plaintiffs contributed to their injuries even if it did not help cause the accident, itself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other States use the COMPARATIVE NEGLIGENCE approach which does not bar the negligent plaintiff from recovery but reduces the plaintiff’s recovery to reflect the degree of fault shared by the plaintiff. However, some States do bar plaintiffs from recovery if they are over half to blame for causing an accident. </t>
+  </si>
+  <si>
+    <t>Contributory Negligence, is complete bar to recovery in negligence, plaintiff helped cause their own injury.</t>
+  </si>
+  <si>
+    <t>For those who are affected by Contributory Negligence, have Last Clear Chance Doctrine, where Defendant has last clear opportunity to avoid the accident and he did nothing, so he is liable for the injuries, and though plaintiff is contributory negligent, is allowed to recover based on last clear chance doctrine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In some states, we have comparative neglience approach, where negligent plaintiff is not completely bar from recovery, but their recovery is reduced to the proportion of their fault. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under the equitable doctrine of PROMISSORY ESTOPPEL a promise or contract that cannot be enforced at law might be enforced at equity to the extent necessary to prevent unjust enrichment where 1) the party to be bound made a promise ,2) intending to induce reliance, 3) there was reasonable reliance on the promise by the party seeking equity, and 4) justice demands enforcement. </t>
+  </si>
+  <si>
+    <t>At equity a party that cannot enforce a promise at law or equity may still seek damages in RESTITUTION to prevent UNJUST ENRICHMENT. The measure of damages may be either the benefits their performance conveyed to the breaching party, or else the detriment they have suffered in reasonable reliance.</t>
+  </si>
 </sst>
 </file>
 
@@ -1754,7 +1956,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1823,6 +2025,11 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="TimesNewRoman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="TimesNewRoman,Italic"/>
     </font>
     <font>
@@ -1866,6 +2073,17 @@
       <color theme="1"/>
       <name val="TimesNewRoman,Italic"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1895,8 +2113,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1915,11 +2133,11 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2244,10 +2462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D222"/>
+  <dimension ref="A4:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2448,827 +2666,882 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="C40" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" ht="70" x14ac:dyDescent="0.15">
+      <c r="A42" s="4"/>
+      <c r="C42" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" ht="70" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
+      <c r="C44" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" ht="150" x14ac:dyDescent="0.15">
+      <c r="A46" s="4"/>
+      <c r="C46" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" ht="70" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
+      <c r="C48" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A49" s="4"/>
-      <c r="C49" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="C50" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
-      <c r="C51" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:4" ht="98" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="C52" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
-      <c r="C53" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:4" ht="70" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" ht="84" x14ac:dyDescent="0.15">
+      <c r="C54" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
-      <c r="C55" s="2" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A57" s="4"/>
+    <row r="57" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
     <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A59" s="4"/>
+      <c r="A59" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A61" s="4"/>
+    <row r="61" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="A63" s="4"/>
+      <c r="C63" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="A65" s="4"/>
+      <c r="C65" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A67" s="4"/>
+      <c r="C67" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" ht="84" x14ac:dyDescent="0.15">
+      <c r="A69" s="4"/>
+      <c r="C69" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A71" s="4"/>
+      <c r="C71" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A73" s="4"/>
+      <c r="C73" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A64" s="4" t="s">
+    <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A77" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A78" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A66" s="4" t="s">
+    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A79" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A67" s="4" t="s">
+    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A80" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A68" s="4"/>
-    </row>
-    <row r="69" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
+    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A82" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A70" s="4" t="s">
+    <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A83" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A71" s="4"/>
-    </row>
-    <row r="72" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A72" s="4" t="s">
+    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A85" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A73" s="4" t="s">
+    <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A86" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A74" s="4" t="s">
+    <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A87" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A88" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A76" s="4" t="s">
+    <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A89" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A77" s="4" t="s">
+    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A90" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A79" s="3" t="s">
+    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A80" s="3" t="s">
+    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A93" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="44" x14ac:dyDescent="0.15">
-      <c r="A81" s="5" t="s">
+    <row r="94" spans="1:3" ht="44" x14ac:dyDescent="0.15">
+      <c r="A94" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A82" s="5"/>
-    </row>
-    <row r="83" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A83" s="5" t="s">
+    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A95" s="5"/>
+    </row>
+    <row r="96" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+      <c r="A96" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A84" s="5"/>
-    </row>
-    <row r="85" spans="1:4" ht="126" x14ac:dyDescent="0.15">
-      <c r="A85" s="5" t="s">
+    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A97" s="5"/>
+    </row>
+    <row r="98" spans="1:4" ht="126" x14ac:dyDescent="0.15">
+      <c r="A98" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A86" s="5"/>
-    </row>
-    <row r="87" spans="1:4" ht="56" x14ac:dyDescent="0.15">
-      <c r="A87" s="4" t="s">
+    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="100" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A100" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="89" spans="1:4" ht="56" x14ac:dyDescent="0.15">
-      <c r="A89" s="4" t="s">
+    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A102" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A90" s="4"/>
-    </row>
-    <row r="91" spans="1:4" ht="112" x14ac:dyDescent="0.15">
-      <c r="A91" s="4" t="s">
+    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" ht="112" x14ac:dyDescent="0.15">
+      <c r="A104" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" ht="84" x14ac:dyDescent="0.15">
-      <c r="A93" s="4" t="s">
+    <row r="105" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" ht="84" x14ac:dyDescent="0.15">
+      <c r="A106" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" ht="70" x14ac:dyDescent="0.15">
-      <c r="A95" s="4" t="s">
+    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" ht="70" x14ac:dyDescent="0.15">
+      <c r="A108" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A96" s="4"/>
-    </row>
-    <row r="97" spans="1:3" ht="56" x14ac:dyDescent="0.15">
-      <c r="A97" s="4" t="s">
+    <row r="109" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A110" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A98" s="4"/>
-    </row>
-    <row r="99" spans="1:3" ht="98" x14ac:dyDescent="0.15">
-      <c r="A99" s="4" t="s">
+    <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112" spans="1:4" ht="98" x14ac:dyDescent="0.15">
+      <c r="A112" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A100" s="4"/>
-    </row>
-    <row r="101" spans="1:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="A101" s="4" t="s">
+    <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A113" s="4"/>
+    </row>
+    <row r="114" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A114" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A102" s="4"/>
-      <c r="C102"/>
-    </row>
-    <row r="103" spans="1:3" ht="84" x14ac:dyDescent="0.15">
-      <c r="A103" s="4" t="s">
+    <row r="115" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A115" s="4"/>
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A116" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A104" s="4"/>
-    </row>
-    <row r="105" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
+    <row r="117" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A117" s="4"/>
+    </row>
+    <row r="118" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A118" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C118" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="56" x14ac:dyDescent="0.15">
-      <c r="A106" s="4"/>
-      <c r="C106" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A107" s="4"/>
-    </row>
-    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A108" s="4"/>
-      <c r="C108" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="84" x14ac:dyDescent="0.15">
-      <c r="A109" s="4"/>
-      <c r="C109" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A110" s="4"/>
-    </row>
-    <row r="111" spans="1:3" ht="70" x14ac:dyDescent="0.15">
-      <c r="A111" s="4"/>
-      <c r="C111" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A112" s="4"/>
-    </row>
-    <row r="113" spans="1:4" ht="70" x14ac:dyDescent="0.15">
-      <c r="A113" s="4"/>
-      <c r="C113" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A114" s="4"/>
-    </row>
-    <row r="115" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A115" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A116" s="3"/>
-    </row>
-    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A117" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A118" s="4"/>
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="1:4" ht="106" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
       <c r="C119" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A121" s="4"/>
+      <c r="C121" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A122" s="4"/>
+      <c r="C122" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A123" s="4"/>
+    </row>
+    <row r="124" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A124" s="4"/>
+      <c r="C124" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A125" s="4"/>
+    </row>
+    <row r="126" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A126" s="4"/>
+      <c r="C126" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A127" s="4"/>
+    </row>
+    <row r="128" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A128" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A129" s="3"/>
+    </row>
+    <row r="130" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A130" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A131" s="4"/>
+      <c r="C131" s="9"/>
+    </row>
+    <row r="132" spans="1:4" ht="106" x14ac:dyDescent="0.15">
+      <c r="A132" s="4"/>
+      <c r="C132" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A120" s="4"/>
-    </row>
-    <row r="121" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A121" s="4"/>
-      <c r="C121" s="7" t="s">
+    <row r="133" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A133" s="4"/>
+    </row>
+    <row r="134" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A134" s="4"/>
+      <c r="C134" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A122" s="4"/>
-      <c r="C122" s="7"/>
-    </row>
-    <row r="123" spans="1:4" ht="58" x14ac:dyDescent="0.15">
-      <c r="A123" s="4"/>
-      <c r="C123" s="2" t="s">
+    <row r="135" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A135" s="4"/>
+      <c r="C135" s="7"/>
+    </row>
+    <row r="136" spans="1:4" ht="58" x14ac:dyDescent="0.15">
+      <c r="A136" s="4"/>
+      <c r="C136" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A124" s="4"/>
-    </row>
-    <row r="125" spans="1:4" ht="70" x14ac:dyDescent="0.15">
-      <c r="A125" s="4" t="s">
+    <row r="137" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" ht="70" x14ac:dyDescent="0.15">
+      <c r="A138" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D138" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A126" s="4"/>
-    </row>
-    <row r="127" spans="1:4" ht="56" x14ac:dyDescent="0.15">
-      <c r="A127" s="4" t="s">
+    <row r="139" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A139" s="4"/>
+    </row>
+    <row r="140" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A140" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A128" s="4"/>
-    </row>
-    <row r="129" spans="1:4" ht="74" x14ac:dyDescent="0.15">
-      <c r="A129" s="4" t="s">
+    <row r="141" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A141" s="4"/>
+    </row>
+    <row r="142" spans="1:4" ht="74" x14ac:dyDescent="0.15">
+      <c r="A142" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A130" s="3" t="s">
+    <row r="143" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A143" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C130"/>
-    </row>
-    <row r="131" spans="1:4" ht="56" x14ac:dyDescent="0.15">
-      <c r="A131" s="4" t="s">
+      <c r="C143"/>
+    </row>
+    <row r="144" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A144" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A132" s="4" t="s">
+    <row r="145" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A145" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C132"/>
-    </row>
-    <row r="133" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A133" s="4" t="s">
+      <c r="C145"/>
+    </row>
+    <row r="146" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A146" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C133" s="8"/>
-    </row>
-    <row r="134" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A134" s="4" t="s">
+      <c r="C146" s="8"/>
+    </row>
+    <row r="147" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A147" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C134"/>
-    </row>
-    <row r="135" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
+      <c r="C147"/>
+    </row>
+    <row r="148" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C135" s="6"/>
-    </row>
-    <row r="136" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A136" s="4" t="s">
+      <c r="C148" s="6"/>
+    </row>
+    <row r="149" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A149" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A137" s="4" t="s">
+    <row r="150" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A150" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A138" s="4" t="s">
+    <row r="151" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A151" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A139" s="4" t="s">
+    <row r="152" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A152" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A140" s="4" t="s">
+    <row r="153" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A153" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A141" s="4" t="s">
+    <row r="154" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A154" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A142" s="4" t="s">
+    <row r="155" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A155" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A143" s="4" t="s">
+    <row r="156" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A156" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A144" s="3" t="s">
+    <row r="157" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A157" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A145" s="4" t="s">
+    <row r="158" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A158" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A146" s="4" t="s">
+    <row r="159" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A159" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A147" s="4" t="s">
+    <row r="160" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A160" s="4" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A148" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A149" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A150" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A151" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A152" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A153" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A154" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A155" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A156" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A157" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A158" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A159" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A160" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A163" s="5" t="s">
-        <v>111</v>
+      <c r="A163" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A165" s="4" t="s">
-        <v>113</v>
+      <c r="A165" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A171" s="4"/>
+      <c r="A171" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="172" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A174" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A175" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A176" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A177" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A178" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A179" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A180" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A181" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A182" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A183" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A184" s="4"/>
+    </row>
+    <row r="185" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A185" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A186" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A175" s="3" t="s">
+    <row r="188" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A188" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A176" s="4"/>
-    </row>
-    <row r="177" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A177" s="4" t="s">
+    <row r="189" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A189" s="4"/>
+    </row>
+    <row r="190" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A190" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A178" s="4" t="s">
+    <row r="191" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A191" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A179" s="4"/>
-    </row>
-    <row r="180" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A180" s="4" t="s">
+    <row r="192" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A192" s="4"/>
+    </row>
+    <row r="193" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A193" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A181" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A182" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A183" s="4"/>
-    </row>
-    <row r="184" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A184" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A185" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A186" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A187" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A188" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A189" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A190" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A191" s="4"/>
-    </row>
-    <row r="192" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A192" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A193" s="4"/>
     </row>
     <row r="194" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A196" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="A196" s="4"/>
     </row>
     <row r="197" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A199" s="4"/>
+      <c r="A199" s="4" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="200" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="16" x14ac:dyDescent="0.15">
@@ -3276,89 +3549,148 @@
     </row>
     <row r="205" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A206" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="A206" s="4"/>
     </row>
     <row r="207" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A212" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="A212" s="4"/>
     </row>
     <row r="213" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A217" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="A217" s="4"/>
     </row>
     <row r="218" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A220" s="4"/>
+      <c r="A220" s="4" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="221" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="16" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A223" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A224" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A225" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A226" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A227" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A228" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A229" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A230" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A231" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A232" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A233" s="4"/>
+    </row>
+    <row r="234" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A234" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A235" s="4" t="s">
         <v>160</v>
       </c>
     </row>

--- a/manish/courseLaw/LMR/Practice1.xlsx
+++ b/manish/courseLaw/LMR/Practice1.xlsx
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="229">
   <si>
     <t>Tort Issues</t>
   </si>
@@ -1946,6 +1946,18 @@
   </si>
   <si>
     <t>At equity a party that cannot enforce a promise at law or equity may still seek damages in RESTITUTION to prevent UNJUST ENRICHMENT. The measure of damages may be either the benefits their performance conveyed to the breaching party, or else the detriment they have suffered in reasonable reliance.</t>
+  </si>
+  <si>
+    <t>CONSIDERATION, a bargained for exchange of value posing legal detriment.</t>
+  </si>
+  <si>
+    <t>Under the theory of PROMISSORY ESTOPPEL an agreement that otherwise is unenforceable at law for lack of consideration may be enforced at equity to the extent necessary to avoid injustice. In order to plead equity a party must have CLEAN HANDS. Promissory Estoppel applies where the party to be bound made a 1) promise with 2) intent to induce reliance and there 3) was reasonable reliance and 4) failure to enforce the promise would cause an injustice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under contract law the defense of IMPOSSIBILITY excuses a breach where the performance of a contract has become impossible due to events beyond the control of the parties. Impossibility means that performance is physically impossible, and it constitutes a failure of an IMPLIED MATERIAL CONDITION of the agreement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under contract law a BREACH is a failure to perform contractual duties when they become due. A MAJOR BREACH is one which denies the non-breaching party the EXPECTED BENEFIT OF THE BARGAIN. A major breach completely excuses the non-breaching party from any further obligation under the contract. A MINOR BREACH is one where the breaching party has SUBSTANTIALLY PERFORMED. When there is a minor breach the non-breaching party must perform contractual duties but is entitled to an OFFSET as compensation for damages. </t>
   </si>
 </sst>
 </file>
@@ -2464,8 +2476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3291,9 +3303,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
         <v>87</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="16" x14ac:dyDescent="0.15">
@@ -3336,115 +3351,121 @@
         <v>95</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+      <c r="C161" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A165" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A171" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="16" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A176" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4" ht="126" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="D180" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:4" ht="70" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
         <v>117</v>
       </c>
@@ -3452,43 +3473,46 @@
         <v>224</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="C185" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A188" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
     <row r="193" spans="1:1" ht="16" x14ac:dyDescent="0.15">

--- a/manish/courseLaw/LMR/Practice1.xlsx
+++ b/manish/courseLaw/LMR/Practice1.xlsx
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A234" authorId="1">
+    <comment ref="A263" authorId="1">
       <text>
         <r>
           <rPr>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="259">
   <si>
     <t>Tort Issues</t>
   </si>
@@ -1958,6 +1958,480 @@
   </si>
   <si>
     <t xml:space="preserve">Under contract law a BREACH is a failure to perform contractual duties when they become due. A MAJOR BREACH is one which denies the non-breaching party the EXPECTED BENEFIT OF THE BARGAIN. A major breach completely excuses the non-breaching party from any further obligation under the contract. A MINOR BREACH is one where the breaching party has SUBSTANTIALLY PERFORMED. When there is a minor breach the non-breaching party must perform contractual duties but is entitled to an OFFSET as compensation for damages. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under CRIMINAL LAW a SOLICITATION is the crime of urging another person to commit a crime. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">92 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">The crime of SOLICITATION is complete as soon as the urging takes place, whether the person urged commits the crime urged or not. But if the urged crime is committed the SOLICITATION MERGES into the criminal result and the person committing the solicitation becomes an ACCESSORY BEFORE THE FACT and VICARIOUSLY LIABLE for the crime based on accomplice theory. </t>
+    </r>
+  </si>
+  <si>
+    <t>Under Criminal law</t>
+  </si>
+  <si>
+    <t>Urging another person to commit a crime is called solicitation, asking another person completes the crime of soliciation so there is no attempt to solicit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under COMMON LAW the crime of CONSPIRACY was an agreement between two or more people to work toward an illegal goal. MODERNLY an OVERT ACT in furtherance of the conspiracy goal is often required in many Courts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further, under the PINKERTON RULE, a member of a conspiracy is VICARIOUSLY LIABLE for the criminal acts of co-conspirators done WITHIN THE SCOPE of the conspiracy goal. This means crimes that were 1) foreseeable and 2) in furtherance of the conspiracy goal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even if the illegal goal of the conspiracy is attained, the CONSPIRACY DOES NOT MERGE into the criminal result, so each member can be convicted of both conspiracy and the other crimes committed during and within the scope of the conspiracy. </t>
+  </si>
+  <si>
+    <t>Agreement between two or more people to work towards an illegal goal. Overt act is required modernly. Under pinkerton's rule, a member of conspiracy is vicariously liable for all the acts of co-conspirators done within scope of conspiracy goal. i.e. foreseeable crimes and in furtherance of conspiracy goal.</t>
+  </si>
+  <si>
+    <t>Under Common Law</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under CRIMINAL LAW an ASSAULT is the crime of acting with the intention of causing a battery or else to cause apprehension of a battery. The victim of the attempted battery does not have to be aware of the danger. </t>
+  </si>
+  <si>
+    <t>Acting with intention of causing a battery or to cause apprehension of the battery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under CRIMINAL LAW a BATTERY is the crime of acting with the intention of causing a touching of a victim’s person and causing a harmful or offensive touching . </t>
+  </si>
+  <si>
+    <t>Harmful and offensive touching, intention of causing a touching of victim's person.</t>
+  </si>
+  <si>
+    <t>Under the Redline Rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under common law ARSON was the malicious burning of the dwelling of another. MODERNLY arson is extended by statute to the burning of other structures. Malice for arson means that the burning must be done with wrongful intent. </t>
+  </si>
+  <si>
+    <t>Malicious (Wrongful intent) burning of dwelling of another, modernly any structure.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under common law LARCENY was the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>trespassory taking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>carrying away</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>personal property</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of another with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>intent to permanently deprive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. Where the possession was gained by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>misrepresentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> it was called LARCENY BY TRICK. </t>
+    </r>
+  </si>
+  <si>
+    <t>Trespassory taking and carying away of personal property of another with intent to deprieve permanantly. LBT is with misrepresentation.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Theft of property from a master or employer by a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">manager or high-level employee </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">was generally </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>embezzlement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and not a larceny, unless the defendant got possession by misrepresentation, a larceny by trick. But theft of the same property by a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">servant or low-level </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">employee was generally </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>larceny,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> not embezzlement, unless the defendant took possession from a third party before deciding to steal it, and in that case it was embezzlement. </t>
+    </r>
+  </si>
+  <si>
+    <t>Under the RELATION BACK DOCTRINE some common law courts held that a theft of “lost” property by a person who initially intended to return it to the lawful owner was a larceny because a later decision to steal RELATED BACK to make the original taking unlawful. But other courts held this was embezzlement on the theory the original taking formed a “constructive trust.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under common law FALSE PRETENSES was a MISREPRESENTATION of FACT to obtain TITLE to the property of another with intent to permanently deprive. </t>
+  </si>
+  <si>
+    <t>Misrepresentation of facts to obtain the title of property of another with intent to permanantly deprive.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under common law EMBEZZLEMENT was the crime of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>TRESPASSORY CONVERSION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>property of another</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by one </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>entrusted with lawful possession</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> intent to permanently deprive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or else causing substantial risk of loss. </t>
+    </r>
+  </si>
+  <si>
+    <t>Trespassory conversion of property of another by one entrusted with lawful possession with intent to permanently deprive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Further, the COMMON CARRIER DOCTRINE held that a common carrier such as a taxicab, bus or ship is entrusted with possession of passenger’s property, including lost property, so a theft of passenger property by an employee of a common carrier was more often held to be EMBEZZLEMENT than larceny, even if the property was “lost”. </t>
+  </si>
+  <si>
+    <t>When “lost” property was stolen by a defendant who first intended to return it to the lawful owner, many courts found EMBEZZLEMENT on the theory the property was held in a “constructive trust”. But other courts applied the RELATION BACK DOCTRINE and held it was a larceny because the decision to steal RELATED BACK to make the original taking unlawful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under CRIMINAL LAW a ROBBERY is a larceny, from a person by use of force or fear to overcome the will of the victim to resist. </t>
+  </si>
+  <si>
+    <t>Larceny from a person by use of force or fear.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under COMMON LAW a BURGLARY was the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>breaking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>entering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>dwelling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>another</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>night</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>intent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to commit a felony. The entry of a structure within the CURTILAGE of the dwelling also constituted a burglary. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Bold"/>
+      </rPr>
+      <t xml:space="preserve">Important! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t>A physical breaking was generally required, but a CONSTRUCTIVE BREAKING would be found if entry was the result of TRICK, VIOLENT THREATS, or CONSPIRACY.</t>
+    </r>
+  </si>
+  <si>
+    <t>BEDONI, Breaking entering dwelling another in night with Intent to commit felony. Constructive breaking is fine in case of trick, violent threats, conspiracy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODERNLY burglary has been extended by statute to all times of the day and all types of structures. Intent to commit a larceny is generally still sufficient to support a burglary charge, even if the larceny is no longer a felony. Further, the “breaking” element will generally be satisfied if there is a TRESPASSORY ENTRY, an entry without consent, express or implied. </t>
   </si>
 </sst>
 </file>
@@ -1968,7 +2442,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2096,6 +2570,13 @@
       <color indexed="81"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2114,7 +2595,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -2127,8 +2608,10 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2153,13 +2636,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Heading" xfId="2"/>
     <cellStyle name="Heading1" xfId="3"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="4"/>
     <cellStyle name="Result2" xfId="5"/>
@@ -2474,16 +2965,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D235"/>
+  <dimension ref="A4:D264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="70.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="9" customWidth="1"/>
     <col min="3" max="3" width="58.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="50.1640625" style="2" customWidth="1"/>
   </cols>
@@ -3502,220 +3993,509 @@
     <row r="189" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:4" ht="126" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A191" s="4" t="s">
+      <c r="B190" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="84" x14ac:dyDescent="0.15">
+      <c r="A191" s="10" t="s">
         <v>123</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
-    </row>
-    <row r="193" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A193" s="4" t="s">
+      <c r="C192"/>
+    </row>
+    <row r="193" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A193" s="4"/>
+      <c r="C193" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A194" s="4"/>
+      <c r="C194"/>
+    </row>
+    <row r="195" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A195" s="4"/>
+      <c r="C195" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A196" s="4"/>
+    </row>
+    <row r="197" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A197" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A194" s="4" t="s">
+      <c r="B197" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="A198" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A195" s="4" t="s">
+      <c r="B198" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A199" s="4"/>
+    </row>
+    <row r="200" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A200" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A196" s="4"/>
-    </row>
-    <row r="197" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A197" s="4" t="s">
+      <c r="B200" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C200"/>
+    </row>
+    <row r="201" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A201" s="4"/>
+      <c r="C201" s="6"/>
+    </row>
+    <row r="202" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A202" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A198" s="4" t="s">
+      <c r="B202" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A203" s="4"/>
+    </row>
+    <row r="204" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A204" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A199" s="4" t="s">
+      <c r="B204" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A205" s="4"/>
+    </row>
+    <row r="206" spans="1:4" ht="98" x14ac:dyDescent="0.15">
+      <c r="A206" s="4"/>
+      <c r="C206" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A207" s="4"/>
+    </row>
+    <row r="208" spans="1:4" ht="84" x14ac:dyDescent="0.15">
+      <c r="A208" s="4"/>
+      <c r="C208" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A209" s="4"/>
+    </row>
+    <row r="210" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A210" s="4"/>
+    </row>
+    <row r="211" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A211" s="4"/>
+    </row>
+    <row r="212" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A212" s="4"/>
+    </row>
+    <row r="213" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="A213" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A200" s="4" t="s">
+      <c r="B213" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A214" s="4"/>
+    </row>
+    <row r="215" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A215" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A201" s="4" t="s">
+      <c r="B215" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A216" s="4"/>
+    </row>
+    <row r="217" spans="1:4" ht="70" x14ac:dyDescent="0.15">
+      <c r="A217" s="4"/>
+      <c r="C217" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A218" s="4"/>
+    </row>
+    <row r="219" spans="1:4" ht="84" x14ac:dyDescent="0.15">
+      <c r="A219" s="4"/>
+      <c r="C219" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A220" s="4"/>
+    </row>
+    <row r="221" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A221" s="4"/>
+    </row>
+    <row r="222" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+      <c r="A222" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A202" s="4" t="s">
+      <c r="B222" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A223" s="4"/>
+    </row>
+    <row r="224" spans="1:4" ht="106" x14ac:dyDescent="0.15">
+      <c r="A224" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A203" s="4" t="s">
+      <c r="B224" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A225" s="4"/>
+    </row>
+    <row r="226" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A226" s="4"/>
+      <c r="C226" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A227" s="4"/>
+    </row>
+    <row r="228" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A228" s="4"/>
+    </row>
+    <row r="229" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A229" s="4"/>
+    </row>
+    <row r="230" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A230" s="4"/>
+    </row>
+    <row r="231" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A231" s="4"/>
+    </row>
+    <row r="232" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A232" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A204" s="4"/>
-    </row>
-    <row r="205" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A205" s="4" t="s">
+      <c r="B232" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A233" s="4"/>
+    </row>
+    <row r="234" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A234" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A206" s="4"/>
-    </row>
-    <row r="207" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A207" s="4" t="s">
+      <c r="B234" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A235" s="4"/>
+    </row>
+    <row r="236" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A236" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A208" s="4" t="s">
+      <c r="B236" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A237" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A209" s="4" t="s">
+      <c r="B237" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A238" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A210" s="4" t="s">
+      <c r="B238" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A239" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A211" s="4" t="s">
+      <c r="B239" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A240" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A212" s="4"/>
-    </row>
-    <row r="213" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A213" s="4" t="s">
+      <c r="B240" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A241" s="4"/>
+    </row>
+    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A242" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A214" s="4" t="s">
+      <c r="B242" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A243" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A215" s="4" t="s">
+      <c r="B243" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A244" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A216" s="4" t="s">
+      <c r="B244" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A245" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A217" s="4"/>
-    </row>
-    <row r="218" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A218" s="4" t="s">
+      <c r="B245" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A246" s="4"/>
+    </row>
+    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A247" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A219" s="4" t="s">
+      <c r="B247" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A248" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A220" s="4" t="s">
+      <c r="B248" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A249" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A221" s="4" t="s">
+      <c r="B249" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A250" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A222" s="4" t="s">
+      <c r="B250" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A251" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A223" s="4" t="s">
+      <c r="B251" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A252" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A224" s="4" t="s">
+      <c r="B252" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A253" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A225" s="4" t="s">
+      <c r="B253" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A254" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A226" s="4" t="s">
+      <c r="B254" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A255" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A227" s="4" t="s">
+      <c r="B255" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A256" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A228" s="4" t="s">
+      <c r="B256" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A257" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A229" s="4" t="s">
+      <c r="B257" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A258" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A230" s="4" t="s">
+      <c r="B258" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A259" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A231" s="4" t="s">
+      <c r="B259" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A260" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A232" s="4" t="s">
+      <c r="B260" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A261" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A233" s="4"/>
-    </row>
-    <row r="234" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A234" s="4" t="s">
+      <c r="B261" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A262" s="4"/>
+    </row>
+    <row r="263" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A263" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A235" s="4" t="s">
+      <c r="B263" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A264" s="4" t="s">
         <v>160</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/manish/courseLaw/LMR/Practice1.xlsx
+++ b/manish/courseLaw/LMR/Practice1.xlsx
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A263" authorId="1">
+    <comment ref="A273" authorId="1">
       <text>
         <r>
           <rPr>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="276">
   <si>
     <t>Tort Issues</t>
   </si>
@@ -2432,6 +2432,553 @@
   </si>
   <si>
     <t xml:space="preserve">MODERNLY burglary has been extended by statute to all times of the day and all types of structures. Intent to commit a larceny is generally still sufficient to support a burglary charge, even if the larceny is no longer a felony. Further, the “breaking” element will generally be satisfied if there is a TRESPASSORY ENTRY, an entry without consent, express or implied. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under CRIMINAL LAW RECEIVING STOLEN PROPERTY is the crime of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>taking possession</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or control </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>over stolen personal property</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> while </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>knowing it has been stolen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from the lawful possessor. The defendant that receives the stolen property and the defendant that provides (delivers) the stolen property are both liable, even though the crime is called “receiving”.. </t>
+    </r>
+  </si>
+  <si>
+    <t>Taking possession of stolen personal property while knowing that it is stolen from the lawful possessor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under the WHARTON RULE there can be no crime of CONSPIRACY TO RECEIVE STOLEN PROPERTY unless there are at least three defendants in agreement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The crime of receiving stolen property is a legal impossibility if the property was in the possession of the defendants with the CONSENT of the lawful OWNER or the POLICE as part of a “sting” operation. In that case the crime is ATTEMPTED RECEIPT OF STOLEN PROPERTY. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under CRIMINAL LAW an ATTEMPTED (crime attempted) is the act of taking a SUBSTANTIAL STEP taken toward committing (that intended crime). </t>
+  </si>
+  <si>
+    <t>Substantial step towards committing crime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For an attempted crime to be committed, it must be legally possible for the crime to have been completed at the moment of the first substantial step. </t>
+  </si>
+  <si>
+    <t>Crime should be legally possible at the time of substantial step.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under CRIMINAL LAW a MURDER is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>unlawful HOMICIDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, the killing of one human being by another, with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>MALICE aforethought</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">MALICE for murder may be 1) an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t>EXPRESS intent to kill,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve"> or IMPLIED by 2) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t>intent to commit GREAT BODILY INJURY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">, 3) intent to commit an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t>INHERENTLY DANGEROUS FELONY,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve"> the FELONY MURDER RULE, or 4) deliberate creation of EXTREME RISKS to human life or deliberate breach of a pre-existing duty to protect others from extreme risks with AWARENESS of and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t>CONSCIOUS DISREGARD for the risks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t>DEPRAVED HEART MURDER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve"> rule. </t>
+    </r>
+  </si>
+  <si>
+    <t>Murder is unlawful homicide, killing of one person by another, with malice aforethought. Malice may be due to 1) intent to kill; 2) intent to commit Great bodily harm 3) intent to commit Inherently Dangerous Felony; 4) Conscious disregard of the risks, DEPRAVED HEART MURDER RULE.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under COMMON LAW there were NO DEGREES of murder but MODERNLY first degree murder is generally codified as a 1) willful, deliberate and premeditated homicide or one 2) done by enumerated means, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">or 3) caused by commission of an enumerated felony. </t>
+    </r>
+  </si>
+  <si>
+    <t>First Degree of Murder is muder in any one of the situation: 1) willful, deliberate, premeditated homicide, 2) use of enumerated means like poison, explosives, torture, 3) during commission of enumerated felony like BARRKSS, Burglary, arson, rape, robbery, kidnapping, sodomy, sexual assault.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The prosecution must prove the defendant was the ACTUAL AND PROXIMATE CAUSE of death, and if more than one act was an actual cause of death, the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>last, unforeseeable, intentional act generally is the only legal cause of death</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and it terminates the criminal liability flowing from all prior acts. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">Generally </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t>negligence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve"> by others is presumed to be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t>foreseeable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t>criminal acts and intentional torts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve"> by third parties are presumed to be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t>unforeseeable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve"> absent special knowledge. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under the FELONY MURDER RULE, a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>homicide caused</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by the commission of an inherently </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>dangerous felony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> can be prosecuted as a murder if it is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>result of acts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> done within the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>RES GESTAE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>underlying felony</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AND results from the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> INHERENT DANGERS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of that type of felony. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t>RES GESTAE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve"> is the s</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">equence of events </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">beginning with the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t>first substantial step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve"> to commit the felony and ending when the defendants </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t>leave the scene of the crime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve"> and reach a place of relative </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t>safety.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Under Felony Murder Rule, homicide caused during the commission of inherently dangerous felony is murder if it is result of acts done during Res Gestae of underlying felony and results from Inherent dangers of that felony. Res Gestae is the sequence of events which starts with first substantial step towards felony and ended with defendants leaving scene of crime and reached the safety spot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under CRIMINAL LAW, MITIGATING FACTORS may be weighed by the jury in determining whether or not a defendant killed with sufficient premeditation to support a finding of first- degree murder or whether the defendant acted with malice aforethought at all for a finding of murder. They may cause the jury to find only manslaughter and not murder. </t>
+  </si>
+  <si>
+    <t>Mitigating factors may be weighed by jury to determine if defendant acted with premeditation or malice aforethought or insanity to assign appropriate degree of murder or manslaughter.</t>
   </si>
 </sst>
 </file>
@@ -2611,7 +3158,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2641,6 +3188,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2965,10 +3515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D264"/>
+  <dimension ref="A4:D274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="D248" sqref="D248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4235,213 +4785,220 @@
         <v>257</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:4" ht="84" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
       <c r="C226" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A228" s="4"/>
-    </row>
-    <row r="229" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:4" ht="84" x14ac:dyDescent="0.15">
+      <c r="A228" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
-    </row>
-    <row r="231" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="C230" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A232" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B232" s="9" t="s">
+    <row r="232" spans="1:4" ht="70" x14ac:dyDescent="0.15">
+      <c r="A232" s="4"/>
+      <c r="C232" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A233" s="4"/>
+    </row>
+    <row r="234" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A234" s="4"/>
+    </row>
+    <row r="235" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="A235" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B235" s="9" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A233" s="4"/>
-    </row>
-    <row r="234" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A234" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A235" s="4"/>
-    </row>
-    <row r="236" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A236" s="4" t="s">
+      <c r="C235" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A236" s="4"/>
+      <c r="C236"/>
+    </row>
+    <row r="237" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="A237" s="4"/>
+      <c r="C237" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A238" s="4"/>
+      <c r="C238"/>
+    </row>
+    <row r="239" spans="1:4" ht="156" x14ac:dyDescent="0.15">
+      <c r="A239" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A237" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B237" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A238" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A239" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="B239" s="9" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A240" s="4" t="s">
+      <c r="C239" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A240" s="4"/>
+      <c r="C240" s="6"/>
+    </row>
+    <row r="241" spans="1:4" ht="70" x14ac:dyDescent="0.15">
+      <c r="A241" s="4"/>
+      <c r="C241" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A242" s="4"/>
+      <c r="C242" s="6"/>
+    </row>
+    <row r="243" spans="1:4" ht="104" x14ac:dyDescent="0.15">
+      <c r="A243" s="4"/>
+      <c r="C243" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A244" s="4"/>
+      <c r="C244" s="6"/>
+    </row>
+    <row r="245" spans="1:4" ht="120" x14ac:dyDescent="0.15">
+      <c r="A245" s="4"/>
+      <c r="C245" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A246" s="4"/>
+      <c r="C246" s="6"/>
+    </row>
+    <row r="247" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A248" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A249" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A250" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="B250" s="9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A241" s="4"/>
-    </row>
-    <row r="242" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A242" s="4" t="s">
+    <row r="251" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A251" s="4"/>
+    </row>
+    <row r="252" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A252" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B242" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A243" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B243" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A244" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B244" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A245" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B245" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A246" s="4"/>
-    </row>
-    <row r="247" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A247" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B247" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A248" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B248" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A249" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B249" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A250" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B250" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A251" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B251" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A252" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="B252" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A253" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B253" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A254" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B254" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A255" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B255" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A256" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B256" s="11" t="s">
-        <v>230</v>
-      </c>
+    <row r="256" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A256" s="4"/>
     </row>
     <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.15">
       <c r="A257" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B257" s="11" t="s">
         <v>230</v>
@@ -4449,7 +5006,7 @@
     </row>
     <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.15">
       <c r="A258" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B258" s="11" t="s">
         <v>230</v>
@@ -4457,7 +5014,7 @@
     </row>
     <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.15">
       <c r="A259" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B259" s="11" t="s">
         <v>230</v>
@@ -4465,7 +5022,7 @@
     </row>
     <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.15">
       <c r="A260" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B260" s="11" t="s">
         <v>230</v>
@@ -4473,18 +5030,23 @@
     </row>
     <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.15">
       <c r="A261" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B261" s="11" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A262" s="4"/>
+      <c r="A262" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="263" spans="1:2" ht="16" x14ac:dyDescent="0.15">
       <c r="A263" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B263" s="11" t="s">
         <v>230</v>
@@ -4492,9 +5054,84 @@
     </row>
     <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.15">
       <c r="A264" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A265" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A266" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A267" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A268" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A269" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A270" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A271" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A272" s="4"/>
+    </row>
+    <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A273" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A274" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B264" s="11" t="s">
+      <c r="B274" s="11" t="s">
         <v>230</v>
       </c>
     </row>

--- a/manish/courseLaw/LMR/Practice1.xlsx
+++ b/manish/courseLaw/LMR/Practice1.xlsx
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A273" authorId="1">
+    <comment ref="A285" authorId="1">
       <text>
         <r>
           <rPr>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="288">
   <si>
     <t>Tort Issues</t>
   </si>
@@ -2979,6 +2979,147 @@
   </si>
   <si>
     <t>Mitigating factors may be weighed by jury to determine if defendant acted with premeditation or malice aforethought or insanity to assign appropriate degree of murder or manslaughter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under CRIMINAL LAW, VOLUNTARY MANSLAUGHTER is an INTENTIONAL, unlawful homicide, the killing of one human being by another, without malice aforethought because of ADEQUATE PROVOCATION. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Intentional,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>unlawful</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> homicide, killing of one human being by another </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>without malice aforethought</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> but due to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Adequate Provocation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. No cooling period allowed. Person was adequate provoced by someone that in heat of passion he killed another person without any malice.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ADEQUATE PROVOCATION is provocation sufficient to raise a reasonable person to a murderous rage, which did raise the defendant to such a rage, and which was the actual cause of the homicide. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">But ADEQUATE PROVOCATION CANNOT BE FOUND if the defendant had enough time before the killing that a reasonable person would have COOLED DOWN and no longer would have been in a murderous rage. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under CRIMINAL LAW, INVOLUNTARY MANSLAUGHTER is an UNINTENDED homicide, the killing of one human being by another, as a result of CRIMINAL NEGLIGENCE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">(a.k.a. “negligent homicide”), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">RECKLESSNESS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">(a.k.a. “reckless homicide”), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t>or during the commission of a MALUM IN SE crime insufficient for a charge of murder (a.k.a. “misdemeanor manslaughter”).</t>
+    </r>
+  </si>
+  <si>
+    <t>Unintentional, homicide, killing of a person by another person, as a result of 1) Criminal Negligence ; 2) Recklessness; 3) during commission of Malum-in-se crime insufficient for a charge of murder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRIMINAL NEGLIGENCE is a deliberate breach of a pre-existing duty to protect others from extreme risks and RECKLESSNESS is a deliberate creation of extreme risks to others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A MALUM IN SE crime is one that involves moral turpitude. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under the REDLINE RULE a co-felon in most States cannot be charged with murder under the FELONY MURDER RULE simply because a co-felon was killed by a victim, bystander or the police during the commission of a crime. </t>
+  </si>
+  <si>
+    <t>Co-felon cannot be charged of murder under Felony murder rule because co-felon was killed by by-stander, victim or police during commission of crime.</t>
+  </si>
+  <si>
+    <t>Under criminal law VOLUNTARY MANSLAUGHTER  is an unlawful, intentional homicide without malice aforethought because of adequate provocation sufficient to raise a resonable person to a fit of rage which could and actually did cause the homicide.</t>
+  </si>
+  <si>
+    <t>Generally "mere words alone" are not considered at law to be adequate provocation.</t>
   </si>
 </sst>
 </file>
@@ -3175,11 +3316,15 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3189,8 +3334,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3515,10 +3660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D274"/>
+  <dimension ref="A4:F286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="D248" sqref="D248"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="A249" sqref="A249:XFD249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3527,6 +3672,8 @@
     <col min="2" max="2" width="22.6640625" style="9" customWidth="1"/>
     <col min="3" max="3" width="58.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="50.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.1640625" customWidth="1"/>
+    <col min="6" max="6" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.15">
@@ -4138,7 +4285,7 @@
     </row>
     <row r="115" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
-      <c r="C115"/>
+      <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
@@ -4232,13 +4379,13 @@
     </row>
     <row r="134" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
-      <c r="C135" s="7"/>
+      <c r="C135" s="8"/>
     </row>
     <row r="136" spans="1:4" ht="58" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
@@ -4292,7 +4439,7 @@
       <c r="A143" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C143"/>
+      <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
@@ -4309,21 +4456,21 @@
       <c r="A145" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C145"/>
+      <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C146" s="8"/>
+      <c r="C146" s="12"/>
     </row>
     <row r="147" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C147"/>
-    </row>
-    <row r="148" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
         <v>83</v>
       </c>
@@ -4573,7 +4720,7 @@
     </row>
     <row r="192" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
-      <c r="C192"/>
+      <c r="C192" s="1"/>
     </row>
     <row r="193" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
@@ -4583,7 +4730,7 @@
     </row>
     <row r="194" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
-      <c r="C194"/>
+      <c r="C194" s="1"/>
     </row>
     <row r="195" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
@@ -4632,9 +4779,9 @@
       <c r="B200" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C200"/>
-    </row>
-    <row r="201" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
       <c r="C201" s="6"/>
     </row>
@@ -4851,7 +4998,7 @@
     </row>
     <row r="236" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
-      <c r="C236"/>
+      <c r="C236" s="1"/>
     </row>
     <row r="237" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
@@ -4864,7 +5011,7 @@
     </row>
     <row r="238" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
-      <c r="C238"/>
+      <c r="C238" s="1"/>
     </row>
     <row r="239" spans="1:4" ht="156" x14ac:dyDescent="0.15">
       <c r="A239" s="4" t="s">
@@ -4880,11 +5027,11 @@
         <v>268</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
       <c r="C240" s="6"/>
     </row>
-    <row r="241" spans="1:4" ht="70" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
       <c r="C241" s="2" t="s">
         <v>269</v>
@@ -4893,21 +5040,21 @@
         <v>270</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
       <c r="C242" s="6"/>
     </row>
-    <row r="243" spans="1:4" ht="104" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" ht="104" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
       <c r="C243" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
       <c r="C244" s="6"/>
     </row>
-    <row r="245" spans="1:4" ht="120" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" ht="120" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
       <c r="C245" s="2" t="s">
         <v>272</v>
@@ -4916,212 +5063,196 @@
         <v>273</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
       <c r="C246" s="6"/>
     </row>
-    <row r="247" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="96" x14ac:dyDescent="0.15">
       <c r="A247" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B247" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C247" s="12" t="s">
+      <c r="C247" s="7" t="s">
         <v>274</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A248" s="4" t="s">
+    <row r="248" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A248" s="4"/>
+      <c r="C248" s="7"/>
+    </row>
+    <row r="249" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+      <c r="A249" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B248" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A249" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="B249" s="9" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A250" s="4" t="s">
+      <c r="C249" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A250" s="4"/>
+      <c r="E250" s="2"/>
+    </row>
+    <row r="251" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A251" s="4"/>
+      <c r="C251" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A252" s="4"/>
+    </row>
+    <row r="253" spans="1:6" ht="64" x14ac:dyDescent="0.15">
+      <c r="A253" s="4"/>
+      <c r="C253" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A254" s="4"/>
+    </row>
+    <row r="255" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A255" s="4"/>
+    </row>
+    <row r="256" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+      <c r="A256" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A257" s="4"/>
+    </row>
+    <row r="258" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+      <c r="A258" s="4"/>
+      <c r="C258" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A259" s="4"/>
+      <c r="C259" s="1"/>
+    </row>
+    <row r="260" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A260" s="4"/>
+      <c r="C260" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A261" s="4"/>
+    </row>
+    <row r="262" spans="1:4" ht="64" x14ac:dyDescent="0.15">
+      <c r="A262" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B250" s="9" t="s">
+      <c r="B262" s="9" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A251" s="4"/>
-    </row>
-    <row r="252" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A252" s="4" t="s">
+      <c r="C262" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A263" s="4"/>
+    </row>
+    <row r="264" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A264" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B252" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A253" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B253" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A254" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B254" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A255" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B255" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A256" s="4"/>
-    </row>
-    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A257" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B257" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A258" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B258" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A259" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B259" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A260" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B260" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A261" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B261" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A262" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B262" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A263" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B263" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A264" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="B264" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A265" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B265" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A266" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B266" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A267" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B267" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A268" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B268" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A268" s="4"/>
+    </row>
+    <row r="269" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A269" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B269" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A270" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B270" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A271" s="4" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B271" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A272" s="4"/>
+    <row r="272" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A272" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.15">
       <c r="A273" s="4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B273" s="11" t="s">
         <v>230</v>
@@ -5129,9 +5260,100 @@
     </row>
     <row r="274" spans="1:2" ht="16" x14ac:dyDescent="0.15">
       <c r="A274" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A275" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A276" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A277" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A278" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A279" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A280" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A281" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A282" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A283" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B283" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A284" s="4"/>
+    </row>
+    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A285" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="A286" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B274" s="11" t="s">
+      <c r="B286" s="11" t="s">
         <v>230</v>
       </c>
     </row>

--- a/manish/courseLaw/LMR/Practice1.xlsx
+++ b/manish/courseLaw/LMR/Practice1.xlsx
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="296">
   <si>
     <t>Tort Issues</t>
   </si>
@@ -3120,6 +3120,89 @@
   </si>
   <si>
     <t>Generally "mere words alone" are not considered at law to be adequate provocation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under criminal law MURDER is an unlawful HOMICIDE, the killing of one human being by another, with MALICE aforethought. Malice for murder can be 1) express intent to kill or implied by 2) intent to cause great bodily injury, 3) intent to commit an inherently dangerous felony, the FELONY MURDER RULE or 4) intent to act with awareness of and conscious disregard for an unreasonably high risk to human life, the DEPRAVED HEART theory. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under common law there were no degrees of murder, but modernly FIRST DEGREE murder is 1) willful, deliberate and premeditated, 2) murder by enumerated means or 3) murder during enumerated dangerous felonies. All other murder is second degree. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The felony-murder rule applies to deaths caused by acts done during the RES GESTAE of an inherently dangerous felony, the events beginning with the first substantial step toward commission of the crime and ending when the defendants leave the scene of the crime and reach a place of relative safety. </t>
+  </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <t>Involuntary manslaughter is an unintentional homicide resulting from GROSS NEGLIGENCE, RECKLESSNESS or the commission of a MALUM IN SE crime insufficient to support the felony murder rule.</t>
+  </si>
+  <si>
+    <t>GROSS (CRIMINAL) NEGLIGENCE is the deliberate breach of a pre-existing duty to protect others from extreme risks, and RECKLESSNESS is the deliberate creation of extreme risks to others.</t>
+  </si>
+  <si>
+    <t>Under criminal law a defendant is privileged to use reasonable force as necessary for SELF-DEFENSE.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under criminal law INSANITY is a defense that negates criminal intent. Under the M'NAUGHTEN RULE  person is insane if a disease of the mind so impairs their reasoning that they are unable to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>appreciate the nature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and quality of their acts or</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to know that they were wrong</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. Under the IRRESISTIBILE IMPULSE theory a person may raise the defense of insanity if they are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>unable to control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> their acts, even if they know the act is wrong. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3130,7 +3213,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3265,6 +3348,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3299,7 +3387,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3336,6 +3424,13 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3662,8 +3757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249:XFD249"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="E275" sqref="E275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4932,19 +5027,19 @@
         <v>257</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:4" ht="84" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:5" ht="84" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
       <c r="C226" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:4" ht="84" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:5" ht="84" x14ac:dyDescent="0.15">
       <c r="A228" s="4" t="s">
         <v>133</v>
       </c>
@@ -4958,31 +5053,31 @@
         <v>260</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
       <c r="C230" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:4" ht="70" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:5" ht="70" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
       <c r="C232" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A235" s="4" t="s">
         <v>134</v>
       </c>
@@ -4996,11 +5091,11 @@
         <v>264</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
       <c r="C237" s="2" t="s">
         <v>265</v>
@@ -5009,11 +5104,14 @@
         <v>266</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
       <c r="C238" s="1"/>
-    </row>
-    <row r="239" spans="1:4" ht="156" x14ac:dyDescent="0.15">
+      <c r="E238" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="156" x14ac:dyDescent="0.15">
       <c r="A239" s="4" t="s">
         <v>135</v>
       </c>
@@ -5026,18 +5124,25 @@
       <c r="D239" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="E239" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
       <c r="C240" s="6"/>
-    </row>
-    <row r="241" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="1:6" ht="80" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
       <c r="C241" s="2" t="s">
         <v>269</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>270</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.15">
@@ -5049,6 +5154,9 @@
       <c r="C243" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="E243" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
@@ -5129,6 +5237,9 @@
     </row>
     <row r="255" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A255" s="4"/>
+      <c r="E255" s="14" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="256" spans="1:6" ht="96" x14ac:dyDescent="0.15">
       <c r="A256" s="4" t="s">
@@ -5143,30 +5254,37 @@
       <c r="D256" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="E256" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A257" s="4"/>
-    </row>
-    <row r="258" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+      <c r="E257" s="13"/>
+    </row>
+    <row r="258" spans="1:5" ht="56" x14ac:dyDescent="0.15">
       <c r="A258" s="4"/>
       <c r="C258" s="7" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="E258" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A259" s="4"/>
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A260" s="4"/>
       <c r="C260" s="7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A261" s="4"/>
     </row>
-    <row r="262" spans="1:4" ht="64" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A262" s="4" t="s">
         <v>139</v>
       </c>
@@ -5180,10 +5298,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A263" s="4"/>
     </row>
-    <row r="264" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A264" s="4" t="s">
         <v>140</v>
       </c>
@@ -5191,7 +5309,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A265" s="4" t="s">
         <v>141</v>
       </c>
@@ -5199,7 +5317,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A266" s="4" t="s">
         <v>142</v>
       </c>
@@ -5207,7 +5325,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A267" s="4" t="s">
         <v>143</v>
       </c>
@@ -5215,10 +5333,10 @@
         <v>230</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A268" s="4"/>
     </row>
-    <row r="269" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A269" s="4" t="s">
         <v>144</v>
       </c>
@@ -5226,7 +5344,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A270" s="4" t="s">
         <v>145</v>
       </c>
@@ -5234,7 +5352,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A271" s="4" t="s">
         <v>146</v>
       </c>
@@ -5242,7 +5360,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A272" s="4" t="s">
         <v>147</v>
       </c>
@@ -5250,7 +5368,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A273" s="4" t="s">
         <v>148</v>
       </c>
@@ -5258,23 +5376,29 @@
         <v>230</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A274" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B274" s="11" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="E274" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="112" x14ac:dyDescent="0.15">
       <c r="A275" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B275" s="11" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="E275" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A276" s="4" t="s">
         <v>151</v>
       </c>
@@ -5282,7 +5406,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A277" s="4" t="s">
         <v>152</v>
       </c>
@@ -5290,7 +5414,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A278" s="4" t="s">
         <v>153</v>
       </c>
@@ -5298,7 +5422,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A279" s="4" t="s">
         <v>154</v>
       </c>
@@ -5306,7 +5430,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A280" s="4" t="s">
         <v>155</v>
       </c>
@@ -5314,15 +5438,18 @@
         <v>230</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A281" s="4" t="s">
         <v>156</v>
       </c>
       <c r="B281" s="11" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+      <c r="E281" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A282" s="4" t="s">
         <v>157</v>
       </c>
@@ -5330,7 +5457,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A283" s="4" t="s">
         <v>158</v>
       </c>
@@ -5338,10 +5465,10 @@
         <v>230</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A284" s="4"/>
     </row>
-    <row r="285" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A285" s="4" t="s">
         <v>159</v>
       </c>
@@ -5349,7 +5476,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A286" s="4" t="s">
         <v>160</v>
       </c>

--- a/manish/courseLaw/LMR/Practice1.xlsx
+++ b/manish/courseLaw/LMR/Practice1.xlsx
@@ -23,7 +23,7 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -42,7 +42,7 @@
     <author>K</author>
   </authors>
   <commentList>
-    <comment ref="A180" authorId="0">
+    <comment ref="A185" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A194" authorId="0">
+    <comment ref="A199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A308" authorId="1">
+    <comment ref="A313" authorId="1">
       <text>
         <r>
           <rPr>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="367">
   <si>
     <t>Tort Issues</t>
   </si>
@@ -4344,6 +4344,113 @@
   </si>
   <si>
     <t xml:space="preserve">Under tort law a commercial seller of a product is strictly liable for personal injury or property damage if the product is unreasonably dangerous at the time it leaves the seller. The seller is liable to any person who is injured as a result. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under tort law defendants that create </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>reasonably foreseeable dangers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to others have a DUTY based on PERIL to act </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>reasonably</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>protect others</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from those dangers. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law, a BYSTANDER to an event may bring an action for NEGLIGENT INFLICTION if they suffer severe emotional distress and there is a nexus between the negligent act and the injury based on a PROXIMITY IN TIME, PLACE and RELATIONSHIP. In some jurisdictions a physical manifestation of emotional distress must be shown. </t>
+  </si>
+  <si>
+    <t>Bystander suffers emotional distress, and injury based on proximity in time and place and relationship, can bring NIED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law FALSE LIGHT is the intentional act of publishing a false portrayal of the plaintiff in a manner causing ridicule or embarrassment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law INTRUSION is an unreasonable intrusion into the peace and solitude of the plaintiff. Damages are measured by the value of lost solitude to the plaintiff. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law APPROPRIATION is the unauthorized use of the name or likeness of a person in a manner that implies endorsement of a product or support of a cause, but not mere publication of names and photos as news articles. Damages are generally measured by the profit to the defendant. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law PUBLIC DISCLOSURE is the unreasonable public disclosure of private facts that a reasonable person would find embarrassing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law PRIVATE NUISANCE is an unreasonable interference with the plaintiffs’ use and enjoyment of their land. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law PUBLIC NUISANCE is an unreasonable interference with the plaintiff's use and enjoyment of public resources causing her particular injury that is different or greater than the general public. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law COMING TO THE NUISANCE is the defense that the plaintiff moved to the location where the condition complained of already existed. It is a complete bar in a MINORITY view, but in the MAJORITY view it is only a factor to be considered in determining damages. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMING TO THE NUISANCE? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMEDIES? </t>
+  </si>
+  <si>
+    <t>The REMEDIES for a nuisance action include both money damages and injunctive relief.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the nuisance is a temporary situation money damages measured by the loss of use for the period of the nuisance will be an adequate remedy. If the nuisance would continue but for injunctive relief, the Court would consider granting an injunction. Injunctive relief is an equitable remedy, and the court has discretion to deny it. The Court will balance the interests of the parties, the interests of third parties and the feasibility of judicial enforcement. If the Court denies injunctive relief, the appropriate remedy is an award of money damages measured by the loss of property value caused by the nuisance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law FRAUD is based on false representations of fact by the defendant made knowingly with intent to deceive that are reasonably relied upon by the plaintiff causing damages. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law INTERFERENCE is an unreasonable interference with the plaintiff's known business relationships causing damages. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under tort law ABUSE OF PROCESS is bringing a civil action against the plaintiff without legitimate basis out of malice and for an improper purpose. </t>
   </si>
 </sst>
 </file>
@@ -4917,10 +5024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F309"/>
+  <dimension ref="A4:F314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C86" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="D111" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5178,347 +5285,353 @@
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="56" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A39" s="4"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="E41" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A40" s="4"/>
-      <c r="E40" s="2" t="s">
+    <row r="42" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A42" s="4"/>
+      <c r="E42" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>307</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="42" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
+    <row r="53" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" ht="70" x14ac:dyDescent="0.15">
-      <c r="A53" s="4"/>
-      <c r="C53" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="70" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="A55" s="4"/>
       <c r="C55" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:5" ht="150" x14ac:dyDescent="0.15">
-      <c r="A57" s="4"/>
+    <row r="57" spans="1:5" ht="70" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C57" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" ht="150" x14ac:dyDescent="0.15">
+      <c r="A59" s="4"/>
+      <c r="C59" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" ht="70" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" ht="70" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" ht="32" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:5" ht="112" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:5" ht="98" x14ac:dyDescent="0.15">
-      <c r="A65" s="4"/>
+    <row r="65" spans="1:5" ht="112" x14ac:dyDescent="0.15">
+      <c r="A65" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="C65" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:5" ht="70" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" ht="98" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
       <c r="C67" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" ht="70" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
-    </row>
-    <row r="70" spans="1:5" ht="64" x14ac:dyDescent="0.15">
-      <c r="A70" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>314</v>
-      </c>
+      <c r="C69" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A70" s="4"/>
     </row>
     <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E72" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:5" ht="96" x14ac:dyDescent="0.15">
-      <c r="A74" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>191</v>
+    <row r="74" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>338</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:5" ht="64" x14ac:dyDescent="0.15">
-      <c r="A76" s="4"/>
+    <row r="76" spans="1:5" ht="96" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C76" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="C78" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:5" ht="80" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
       <c r="C80" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>340</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:6" ht="84" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="80" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="C82" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="84" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="C84" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:6" ht="80" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" ht="56" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
+      <c r="C86" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="E86" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:6" ht="32" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="80" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
+      <c r="E88" s="8" t="s">
+        <v>343</v>
+      </c>
       <c r="F88" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:6" ht="64" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="32" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="F90" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="64" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
-      <c r="F92" s="6" t="s">
-        <v>347</v>
+      <c r="F92" s="8" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.15">
@@ -5527,1206 +5640,1223 @@
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="F94" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:6" ht="64" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="C96" s="2" t="s">
+      <c r="F96" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+      <c r="A98" s="4"/>
+      <c r="C98" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E98" s="8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A97" s="4"/>
-    </row>
-    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A98" s="4" t="s">
+    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A100" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A99" s="4"/>
-    </row>
-    <row r="100" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A100" s="4" t="s">
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+      <c r="A102" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A101" s="4" t="s">
+      <c r="E102" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="80" x14ac:dyDescent="0.15">
+      <c r="A103" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A102" s="4" t="s">
+      <c r="E103" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+      <c r="A104" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A103" s="4" t="s">
+      <c r="E104" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+      <c r="A105" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A104" s="4"/>
-    </row>
-    <row r="105" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
+      <c r="E105" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+      <c r="A107" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A106" s="4" t="s">
+      <c r="E107" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+      <c r="A108" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A107" s="4"/>
-    </row>
-    <row r="108" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A108" s="4" t="s">
+      <c r="E108" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="80" x14ac:dyDescent="0.15">
+      <c r="A109" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="160" x14ac:dyDescent="0.15">
+      <c r="A111" s="7"/>
+      <c r="E111" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A112" s="7"/>
+    </row>
+    <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A113" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A109" s="4" t="s">
+    <row r="114" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+      <c r="A114" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A110" s="4" t="s">
+      <c r="E114" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+      <c r="A115" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A111" s="4" t="s">
+      <c r="E115" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+      <c r="A116" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A112" s="4" t="s">
+      <c r="E116" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A117" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A113" s="4" t="s">
+    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A118" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A115" s="3" t="s">
+    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A120" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A116" s="3" t="s">
+    <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A121" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="44" x14ac:dyDescent="0.15">
-      <c r="A117" s="5" t="s">
+    <row r="122" spans="1:5" ht="44" x14ac:dyDescent="0.15">
+      <c r="A122" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A118" s="5"/>
-    </row>
-    <row r="119" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A119" s="5" t="s">
+    <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A123" s="5"/>
+    </row>
+    <row r="124" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A124" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A120" s="5"/>
-    </row>
-    <row r="121" spans="1:4" ht="126" x14ac:dyDescent="0.15">
-      <c r="A121" s="5" t="s">
+    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A125" s="5"/>
+    </row>
+    <row r="126" spans="1:5" ht="126" x14ac:dyDescent="0.15">
+      <c r="A126" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A122" s="5"/>
-    </row>
-    <row r="123" spans="1:4" ht="56" x14ac:dyDescent="0.15">
-      <c r="A123" s="4" t="s">
+    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A127" s="5"/>
+    </row>
+    <row r="128" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A128" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A124" s="4"/>
-    </row>
-    <row r="125" spans="1:4" ht="56" x14ac:dyDescent="0.15">
-      <c r="A125" s="4" t="s">
+    <row r="129" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A129" s="4"/>
+    </row>
+    <row r="130" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A130" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A126" s="4"/>
-    </row>
-    <row r="127" spans="1:4" ht="112" x14ac:dyDescent="0.15">
-      <c r="A127" s="4" t="s">
+    <row r="131" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A131" s="4"/>
+    </row>
+    <row r="132" spans="1:4" ht="112" x14ac:dyDescent="0.15">
+      <c r="A132" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A128" s="4"/>
-    </row>
-    <row r="129" spans="1:3" ht="84" x14ac:dyDescent="0.15">
-      <c r="A129" s="4" t="s">
+    <row r="133" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A133" s="4"/>
+    </row>
+    <row r="134" spans="1:4" ht="84" x14ac:dyDescent="0.15">
+      <c r="A134" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A130" s="4"/>
-    </row>
-    <row r="131" spans="1:3" ht="70" x14ac:dyDescent="0.15">
-      <c r="A131" s="4" t="s">
+    <row r="135" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A135" s="4"/>
+    </row>
+    <row r="136" spans="1:4" ht="70" x14ac:dyDescent="0.15">
+      <c r="A136" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A132" s="4"/>
-    </row>
-    <row r="133" spans="1:3" ht="56" x14ac:dyDescent="0.15">
-      <c r="A133" s="4" t="s">
+    <row r="137" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A138" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A134" s="4"/>
-    </row>
-    <row r="135" spans="1:3" ht="98" x14ac:dyDescent="0.15">
-      <c r="A135" s="4" t="s">
+    <row r="139" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A139" s="4"/>
+    </row>
+    <row r="140" spans="1:4" ht="98" x14ac:dyDescent="0.15">
+      <c r="A140" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A136" s="4"/>
-    </row>
-    <row r="137" spans="1:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="A137" s="4" t="s">
+    <row r="141" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A141" s="4"/>
+    </row>
+    <row r="142" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+      <c r="A142" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A138" s="4"/>
-      <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="1:3" ht="84" x14ac:dyDescent="0.15">
-      <c r="A139" s="4" t="s">
+    <row r="143" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A143" s="4"/>
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:4" ht="84" x14ac:dyDescent="0.15">
+      <c r="A144" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A140" s="4"/>
-    </row>
-    <row r="141" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A141" s="4" t="s">
+    <row r="145" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A145" s="4"/>
+    </row>
+    <row r="146" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A146" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C146" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="56" x14ac:dyDescent="0.15">
-      <c r="A142" s="4"/>
-      <c r="C142" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A143" s="4"/>
-    </row>
-    <row r="144" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A144" s="4"/>
-      <c r="C144" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="84" x14ac:dyDescent="0.15">
-      <c r="A145" s="4"/>
-      <c r="C145" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A146" s="4"/>
-    </row>
-    <row r="147" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
       <c r="C147" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+      <c r="A150" s="4"/>
+      <c r="C150" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A151" s="4"/>
+    </row>
+    <row r="152" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A152" s="4"/>
+      <c r="C152" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A153" s="4"/>
+    </row>
+    <row r="154" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A154" s="4"/>
+      <c r="C154" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A150" s="4"/>
-    </row>
-    <row r="151" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A151" s="3" t="s">
+    <row r="155" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A155" s="4"/>
+    </row>
+    <row r="156" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A156" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A152" s="3"/>
-    </row>
-    <row r="153" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A153" s="4" t="s">
+    <row r="157" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A157" s="3"/>
+    </row>
+    <row r="158" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A158" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C158" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A154" s="4"/>
-      <c r="C154" s="10"/>
-    </row>
-    <row r="155" spans="1:3" ht="106" x14ac:dyDescent="0.15">
-      <c r="A155" s="4"/>
-      <c r="C155" s="2" t="s">
+    <row r="159" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A159" s="4"/>
+      <c r="C159" s="10"/>
+    </row>
+    <row r="160" spans="1:3" ht="106" x14ac:dyDescent="0.15">
+      <c r="A160" s="4"/>
+      <c r="C160" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A156" s="4"/>
-    </row>
-    <row r="157" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A157" s="4"/>
-      <c r="C157" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A158" s="4"/>
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="1:3" ht="58" x14ac:dyDescent="0.15">
-      <c r="A159" s="4"/>
-      <c r="C159" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A160" s="4"/>
-    </row>
-    <row r="161" spans="1:4" ht="70" x14ac:dyDescent="0.15">
-      <c r="A161" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>172</v>
-      </c>
+    <row r="161" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A161" s="4"/>
     </row>
     <row r="162" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
-    </row>
-    <row r="163" spans="1:4" ht="56" x14ac:dyDescent="0.15">
-      <c r="A163" s="4" t="s">
+      <c r="C162" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A163" s="4"/>
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="1:4" ht="58" x14ac:dyDescent="0.15">
+      <c r="A164" s="4"/>
+      <c r="C164" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A165" s="4"/>
+    </row>
+    <row r="166" spans="1:4" ht="70" x14ac:dyDescent="0.15">
+      <c r="A166" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A167" s="4"/>
+    </row>
+    <row r="168" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A168" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D168" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A164" s="4"/>
-    </row>
-    <row r="165" spans="1:4" ht="74" x14ac:dyDescent="0.15">
-      <c r="A165" s="4" t="s">
+    <row r="169" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A169" s="4"/>
+    </row>
+    <row r="170" spans="1:4" ht="74" x14ac:dyDescent="0.15">
+      <c r="A170" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D170" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A166" s="3" t="s">
+    <row r="171" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A171" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C166" s="1"/>
-    </row>
-    <row r="167" spans="1:4" ht="56" x14ac:dyDescent="0.15">
-      <c r="A167" s="4" t="s">
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A172" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D172" s="2" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A168" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C168" s="1"/>
-    </row>
-    <row r="169" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A169" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C169" s="13"/>
-    </row>
-    <row r="170" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A170" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C170" s="1"/>
-    </row>
-    <row r="171" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A171" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C171" s="7"/>
-    </row>
-    <row r="172" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A172" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C173" s="1"/>
     </row>
     <row r="174" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="70" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="C174" s="13"/>
+    </row>
+    <row r="175" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>226</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C175" s="1"/>
     </row>
     <row r="176" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>87</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C176" s="7"/>
     </row>
     <row r="177" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A180" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A180" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="126" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>227</v>
+        <v>90</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A185" s="4" t="s">
-        <v>96</v>
+      <c r="A185" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A188" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="A188" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A193" s="4" t="s">
-        <v>104</v>
+      <c r="A193" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A194" s="3" t="s">
-        <v>105</v>
+      <c r="A194" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A199" s="5" t="s">
-        <v>110</v>
+      <c r="A199" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="126" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>225</v>
+        <v>109</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A204" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="70" x14ac:dyDescent="0.15">
+      <c r="A204" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A207" s="4"/>
-    </row>
-    <row r="208" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+      <c r="A207" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="126" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+      <c r="A210" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A211" s="3" t="s">
-        <v>120</v>
+      <c r="A211" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:6" ht="126" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B213" s="10" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="144" x14ac:dyDescent="0.15">
-      <c r="A214" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B214" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E214" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="F214" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A215" s="4"/>
-      <c r="C215" s="1"/>
-    </row>
-    <row r="216" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A216" s="4"/>
-      <c r="C216" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A214" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A216" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
-      <c r="C217" s="1"/>
-    </row>
-    <row r="218" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A218" s="4"/>
+    </row>
+    <row r="218" spans="1:6" ht="126" x14ac:dyDescent="0.15">
+      <c r="A218" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="C218" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A219" s="4"/>
-    </row>
-    <row r="220" spans="1:6" ht="56" x14ac:dyDescent="0.15">
-      <c r="A220" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B220" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A221" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B221" s="10" t="s">
-        <v>229</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="144" x14ac:dyDescent="0.15">
+      <c r="A219" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E219" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F219" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A220" s="4"/>
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A221" s="4"/>
       <c r="C221" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
-    </row>
-    <row r="223" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A223" s="4" t="s">
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A223" s="4"/>
+      <c r="C223" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A224" s="4"/>
+    </row>
+    <row r="225" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A225" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A226" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A227" s="4"/>
+    </row>
+    <row r="228" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A228" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B223" s="10" t="s">
+      <c r="B228" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C223" s="1"/>
-    </row>
-    <row r="224" spans="1:6" ht="32" x14ac:dyDescent="0.15">
-      <c r="A224" s="4"/>
-      <c r="C224" s="7"/>
-      <c r="E224" s="16" t="s">
+      <c r="C228" s="1"/>
+    </row>
+    <row r="229" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+      <c r="A229" s="4"/>
+      <c r="C229" s="7"/>
+      <c r="E229" s="16" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="56" x14ac:dyDescent="0.15">
-      <c r="A225" s="4" t="s">
+    <row r="230" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A230" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="B230" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C230" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D230" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A226" s="4"/>
-    </row>
-    <row r="227" spans="1:4" ht="56" x14ac:dyDescent="0.15">
-      <c r="A227" s="4" t="s">
+    <row r="231" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A231" s="4"/>
+    </row>
+    <row r="232" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A232" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B227" s="10" t="s">
+      <c r="B232" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C232" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="D232" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A228" s="4"/>
-    </row>
-    <row r="229" spans="1:4" ht="98" x14ac:dyDescent="0.15">
-      <c r="A229" s="4"/>
-      <c r="C229" s="2" t="s">
+    <row r="233" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A233" s="4"/>
+    </row>
+    <row r="234" spans="1:5" ht="98" x14ac:dyDescent="0.15">
+      <c r="A234" s="4"/>
+      <c r="C234" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A230" s="4"/>
-    </row>
-    <row r="231" spans="1:4" ht="84" x14ac:dyDescent="0.15">
-      <c r="A231" s="4"/>
-      <c r="C231" s="2" t="s">
+    <row r="235" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A235" s="4"/>
+    </row>
+    <row r="236" spans="1:5" ht="84" x14ac:dyDescent="0.15">
+      <c r="A236" s="4"/>
+      <c r="C236" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A232" s="4"/>
-    </row>
-    <row r="233" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A233" s="4"/>
-    </row>
-    <row r="234" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A234" s="4"/>
-    </row>
-    <row r="235" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A235" s="4"/>
-    </row>
-    <row r="236" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A236" s="4" t="s">
+    <row r="237" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A237" s="4"/>
+    </row>
+    <row r="238" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A238" s="4"/>
+    </row>
+    <row r="239" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A239" s="4"/>
+    </row>
+    <row r="240" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A240" s="4"/>
+    </row>
+    <row r="241" spans="1:4" ht="42" x14ac:dyDescent="0.15">
+      <c r="A241" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B236" s="10" t="s">
+      <c r="B241" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C241" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D236" s="2" t="s">
+      <c r="D241" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A237" s="4"/>
-    </row>
-    <row r="238" spans="1:4" ht="56" x14ac:dyDescent="0.15">
-      <c r="A238" s="4" t="s">
+    <row r="242" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A242" s="4"/>
+    </row>
+    <row r="243" spans="1:4" ht="56" x14ac:dyDescent="0.15">
+      <c r="A243" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="B243" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C243" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="D243" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A239" s="4"/>
-    </row>
-    <row r="240" spans="1:4" ht="70" x14ac:dyDescent="0.15">
-      <c r="A240" s="4"/>
-      <c r="C240" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A241" s="4"/>
-    </row>
-    <row r="242" spans="1:4" ht="84" x14ac:dyDescent="0.15">
-      <c r="A242" s="4"/>
-      <c r="C242" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A243" s="4"/>
     </row>
     <row r="244" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A245" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B245" s="10" t="s">
-        <v>229</v>
-      </c>
+    <row r="245" spans="1:4" ht="70" x14ac:dyDescent="0.15">
+      <c r="A245" s="4"/>
       <c r="C245" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:4" ht="106" x14ac:dyDescent="0.15">
-      <c r="A247" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B247" s="10" t="s">
-        <v>235</v>
-      </c>
+    <row r="247" spans="1:4" ht="84" x14ac:dyDescent="0.15">
+      <c r="A247" s="4"/>
       <c r="C247" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:4" ht="84" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A249" s="4"/>
-      <c r="C249" s="2" t="s">
+    </row>
+    <row r="250" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+      <c r="A250" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A251" s="4"/>
+    </row>
+    <row r="252" spans="1:4" ht="106" x14ac:dyDescent="0.15">
+      <c r="A252" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A253" s="4"/>
+    </row>
+    <row r="254" spans="1:4" ht="84" x14ac:dyDescent="0.15">
+      <c r="A254" s="4"/>
+      <c r="C254" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A250" s="4"/>
-    </row>
-    <row r="251" spans="1:4" ht="84" x14ac:dyDescent="0.15">
-      <c r="A251" s="4" t="s">
+    <row r="255" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A255" s="4"/>
+    </row>
+    <row r="256" spans="1:4" ht="84" x14ac:dyDescent="0.15">
+      <c r="A256" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B251" s="10" t="s">
+      <c r="B256" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C256" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D256" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A252" s="4"/>
-    </row>
-    <row r="253" spans="1:4" ht="42" x14ac:dyDescent="0.15">
-      <c r="A253" s="4"/>
-      <c r="C253" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A254" s="4"/>
-    </row>
-    <row r="255" spans="1:4" ht="70" x14ac:dyDescent="0.15">
-      <c r="A255" s="4"/>
-      <c r="C255" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A256" s="4"/>
     </row>
     <row r="257" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A257" s="4"/>
     </row>
     <row r="258" spans="1:6" ht="42" x14ac:dyDescent="0.15">
-      <c r="A258" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B258" s="10" t="s">
-        <v>229</v>
-      </c>
+      <c r="A258" s="4"/>
       <c r="C258" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A259" s="4"/>
-      <c r="C259" s="1"/>
-    </row>
-    <row r="260" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    </row>
+    <row r="260" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A260" s="4"/>
       <c r="C260" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A261" s="4"/>
-      <c r="C261" s="1"/>
-      <c r="E261" t="s">
+    </row>
+    <row r="262" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A262" s="4"/>
+    </row>
+    <row r="263" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A263" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A264" s="4"/>
+      <c r="C264" s="1"/>
+    </row>
+    <row r="265" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A265" s="4"/>
+      <c r="C265" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A266" s="4"/>
+      <c r="C266" s="1"/>
+      <c r="E266" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="156" x14ac:dyDescent="0.15">
-      <c r="A262" s="4" t="s">
+    <row r="267" spans="1:6" ht="156" x14ac:dyDescent="0.15">
+      <c r="A267" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B262" s="10" t="s">
+      <c r="B267" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C267" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D262" s="2" t="s">
+      <c r="D267" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E262" s="8" t="s">
+      <c r="E267" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="F262" s="14" t="s">
+      <c r="F267" s="14" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A263" s="4"/>
-      <c r="C263" s="7"/>
-      <c r="E263" s="2"/>
-    </row>
-    <row r="264" spans="1:6" ht="80" x14ac:dyDescent="0.15">
-      <c r="A264" s="4"/>
-      <c r="C264" s="2" t="s">
+    <row r="268" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A268" s="4"/>
+      <c r="C268" s="7"/>
+      <c r="E268" s="2"/>
+    </row>
+    <row r="269" spans="1:6" ht="80" x14ac:dyDescent="0.15">
+      <c r="A269" s="4"/>
+      <c r="C269" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D264" s="2" t="s">
+      <c r="D269" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E264" s="8" t="s">
+      <c r="E269" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A265" s="4"/>
-      <c r="C265" s="7"/>
-    </row>
-    <row r="266" spans="1:6" ht="104" x14ac:dyDescent="0.15">
-      <c r="A266" s="4"/>
-      <c r="C266" s="2" t="s">
+    <row r="270" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A270" s="4"/>
+      <c r="C270" s="7"/>
+    </row>
+    <row r="271" spans="1:6" ht="104" x14ac:dyDescent="0.15">
+      <c r="A271" s="4"/>
+      <c r="C271" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E266" s="8" t="s">
+      <c r="E271" s="8" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A267" s="4"/>
-      <c r="C267" s="7"/>
-    </row>
-    <row r="268" spans="1:6" ht="120" x14ac:dyDescent="0.15">
-      <c r="A268" s="4"/>
-      <c r="C268" s="2" t="s">
+    <row r="272" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A272" s="4"/>
+      <c r="C272" s="7"/>
+    </row>
+    <row r="273" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="A273" s="4"/>
+      <c r="C273" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D268" s="2" t="s">
+      <c r="D273" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A269" s="4"/>
-      <c r="C269" s="7"/>
-    </row>
-    <row r="270" spans="1:6" ht="96" x14ac:dyDescent="0.15">
-      <c r="A270" s="4" t="s">
+    <row r="274" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A274" s="4"/>
+      <c r="C274" s="7"/>
+    </row>
+    <row r="275" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+      <c r="A275" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B270" s="10" t="s">
+      <c r="B275" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C270" s="8" t="s">
+      <c r="C275" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D270" s="2" t="s">
+      <c r="D275" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.15">
-      <c r="A271" s="4"/>
-      <c r="C271" s="8"/>
-    </row>
-    <row r="272" spans="1:6" ht="70" x14ac:dyDescent="0.15">
-      <c r="A272" s="4" t="s">
+    <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A276" s="4"/>
+      <c r="C276" s="8"/>
+    </row>
+    <row r="277" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+      <c r="A277" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B272" s="10" t="s">
+      <c r="B277" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C272" s="8" t="s">
+      <c r="C277" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D272" s="2" t="s">
+      <c r="D277" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E272" s="2" t="s">
+      <c r="E277" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F272" s="2" t="s">
+      <c r="F277" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A273" s="4"/>
-      <c r="E273" s="2"/>
-    </row>
-    <row r="274" spans="1:5" ht="48" x14ac:dyDescent="0.15">
-      <c r="A274" s="4"/>
-      <c r="C274" s="8" t="s">
+    <row r="278" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A278" s="4"/>
+      <c r="E278" s="2"/>
+    </row>
+    <row r="279" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A279" s="4"/>
+      <c r="C279" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A275" s="4"/>
-    </row>
-    <row r="276" spans="1:5" ht="64" x14ac:dyDescent="0.15">
-      <c r="A276" s="4"/>
-      <c r="C276" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A277" s="4"/>
-    </row>
-    <row r="278" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A278" s="4"/>
-      <c r="E278" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="96" x14ac:dyDescent="0.15">
-      <c r="A279" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B279" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C279" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A280" s="4"/>
-      <c r="E280" s="14"/>
-    </row>
-    <row r="281" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+    </row>
+    <row r="281" spans="1:6" ht="64" x14ac:dyDescent="0.15">
       <c r="A281" s="4"/>
       <c r="C281" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A282" s="4"/>
+    </row>
+    <row r="283" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A283" s="4"/>
+      <c r="E283" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+      <c r="A284" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A285" s="4"/>
+      <c r="E285" s="14"/>
+    </row>
+    <row r="286" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A286" s="4"/>
+      <c r="C286" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="E281" s="2" t="s">
+      <c r="E286" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A282" s="4"/>
-      <c r="C282" s="1"/>
-    </row>
-    <row r="283" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A283" s="4"/>
-      <c r="C283" s="8" t="s">
+    <row r="287" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A287" s="4"/>
+      <c r="C287" s="1"/>
+    </row>
+    <row r="288" spans="1:6" ht="16" x14ac:dyDescent="0.15">
+      <c r="A288" s="4"/>
+      <c r="C288" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A284" s="4"/>
-    </row>
-    <row r="285" spans="1:5" ht="80" x14ac:dyDescent="0.15">
-      <c r="A285" s="4" t="s">
+    <row r="289" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A289" s="4"/>
+    </row>
+    <row r="290" spans="1:5" ht="80" x14ac:dyDescent="0.15">
+      <c r="A290" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B285" s="10" t="s">
+      <c r="B290" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C285" s="8" t="s">
+      <c r="C290" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D285" s="2" t="s">
+      <c r="D290" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E285" s="16" t="s">
+      <c r="E290" s="16" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A286" s="4"/>
-    </row>
-    <row r="287" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A287" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B287" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" ht="32" x14ac:dyDescent="0.15">
-      <c r="A288" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B288" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E288" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A289" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B289" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" ht="64" x14ac:dyDescent="0.15">
-      <c r="A290" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B290" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="E290" s="14" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="16" x14ac:dyDescent="0.15">
@@ -6734,67 +6864,64 @@
     </row>
     <row r="292" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A292" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B292" s="12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A293" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B293" s="12" t="s">
-        <v>229</v>
+        <v>140</v>
+      </c>
+      <c r="B293" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E293" s="14" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A294" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B294" s="12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A295" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B295" s="12" t="s">
         <v>229</v>
       </c>
+      <c r="E295" s="14" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="296" spans="1:5" ht="16" x14ac:dyDescent="0.15">
-      <c r="A296" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B296" s="12" t="s">
-        <v>229</v>
-      </c>
+      <c r="A296" s="4"/>
     </row>
     <row r="297" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A297" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B297" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="E297" s="15"/>
-    </row>
-    <row r="298" spans="1:5" ht="112" x14ac:dyDescent="0.15">
+    </row>
+    <row r="298" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A298" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B298" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="E298" s="17" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="299" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A299" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B299" s="12" t="s">
         <v>229</v>
@@ -6802,7 +6929,7 @@
     </row>
     <row r="300" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A300" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B300" s="12" t="s">
         <v>229</v>
@@ -6810,7 +6937,7 @@
     </row>
     <row r="301" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A301" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B301" s="12" t="s">
         <v>229</v>
@@ -6818,63 +6945,107 @@
     </row>
     <row r="302" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A302" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B302" s="12" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="E302" s="15"/>
+    </row>
+    <row r="303" spans="1:5" ht="112" x14ac:dyDescent="0.15">
       <c r="A303" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B303" s="12" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="E303" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A304" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B304" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="E304" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="305" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A305" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B305" s="12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A306" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B306" s="12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.15">
-      <c r="A307" s="4"/>
-    </row>
-    <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A307" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B307" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A308" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B308" s="12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A309" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B309" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A310" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B310" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A311" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B311" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A312" s="4"/>
+    </row>
+    <row r="313" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A313" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B313" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+      <c r="A314" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B309" s="12" t="s">
+      <c r="B314" s="12" t="s">
         <v>229</v>
       </c>
     </row>
